--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>土地坐落</t>
   </si>
@@ -105,6 +105,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>鴻海精密工業股份有限公 司</t>
   </si>
   <si>
@@ -130,6 +139,12 @@
   </si>
   <si>
     <t>1’150’000</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>楊玉欣</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -749,13 +764,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -774,13 +789,22 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -792,18 +816,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -815,18 +848,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -838,18 +880,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -861,18 +912,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -884,18 +944,27 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -907,18 +976,27 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -930,18 +1008,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -953,10 +1040,19 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
@@ -974,13 +1070,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -988,10 +1084,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1002,10 +1098,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1016,10 +1112,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1030,10 +1126,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1044,10 +1140,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1058,10 +1154,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1072,10 +1168,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1096,22 +1192,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1119,22 +1215,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1142,22 +1238,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1165,22 +1261,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1188,22 +1284,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>土地坐落</t>
   </si>
@@ -105,6 +105,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -114,22 +117,22 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>興勤電子工業股份有限公 司</t>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>興勤電子工業股份有限公司</t>
   </si>
   <si>
     <t>位速科技股份有限公司</t>
   </si>
   <si>
-    <t>碩禾電子材料股份有限公 司</t>
-  </si>
-  <si>
-    <t>欣陸投資控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>遠雄建設事業股份有限公 司</t>
+    <t>碩禾電子材料股份有限公司</t>
+  </si>
+  <si>
+    <t>欣陸投資控股股份有限公司</t>
+  </si>
+  <si>
+    <t>遠雄建設事業股份有限公司</t>
   </si>
   <si>
     <t>展茂光電股份有限公司</t>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>1’150’000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-24</t>
@@ -764,13 +770,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -798,13 +804,16 @@
       <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -816,27 +825,30 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -848,27 +860,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -880,27 +895,30 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -912,27 +930,30 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -944,27 +965,30 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -976,27 +1000,30 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1008,27 +1035,30 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="2">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
         <v>1757</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1040,18 +1070,21 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="2">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
         <v>1757</v>
       </c>
     </row>
@@ -1070,13 +1103,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1084,10 +1117,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1098,10 +1131,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1112,10 +1145,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1126,10 +1159,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1140,10 +1173,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1154,10 +1187,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1168,10 +1201,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1192,22 +1225,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1215,22 +1248,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1238,22 +1271,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1261,22 +1294,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1284,22 +1317,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>土地坐落</t>
   </si>
@@ -108,6 +108,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -117,6 +120,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
@@ -141,16 +150,22 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1’150’000</t>
+    <t>1150000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-24</t>
   </si>
   <si>
     <t>楊玉欣</t>
+  </si>
+  <si>
+    <t>tmp89971</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -770,13 +785,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -807,13 +822,22 @@
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -825,30 +849,39 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -860,30 +893,39 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -895,30 +937,39 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -930,30 +981,39 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -965,30 +1025,39 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1000,30 +1069,39 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1035,30 +1113,39 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2">
         <v>1757</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1070,22 +1157,31 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2">
         <v>1757</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1199,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1117,10 +1213,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1131,10 +1227,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1145,10 +1241,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1159,10 +1255,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1173,10 +1269,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1187,10 +1283,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1201,10 +1297,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1225,22 +1321,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1248,22 +1344,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1271,22 +1367,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1294,22 +1390,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1317,22 +1413,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,9 +19,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市板橋區新板段二小段00040000地號</t>
+  </si>
+  <si>
+    <t>100000分之535</t>
+  </si>
+  <si>
+    <t>孫效智</t>
+  </si>
+  <si>
+    <t>98年08月28日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>34350000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>楊玉欣</t>
+  </si>
+  <si>
+    <t>tmp89971</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,28 +117,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市板橋區新板段二小段 0004-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之535</t>
-  </si>
-  <si>
-    <t>孫效智</t>
-  </si>
-  <si>
-    <t>98年08月 28日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>34，350，000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市板橋區新板段二小段 00105-000 建號</t>
+    <t>新北市板橋區新板段二小段00105000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -81,18 +135,12 @@
     <t>國瑞Wish</t>
   </si>
   <si>
-    <t>94年05月 03 H</t>
+    <t>94年05月03H</t>
   </si>
   <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -105,27 +153,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
@@ -156,18 +183,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-24</t>
-  </si>
-  <si>
-    <t>楊玉欣</t>
-  </si>
-  <si>
-    <t>tmp89971</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -186,9 +201,6 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>富邦人壽 '</t>
-  </si>
-  <si>
     <t>特別增值分紅終身壽險</t>
   </si>
   <si>
@@ -228,22 +240,22 @@
     <t>證券融資</t>
   </si>
   <si>
-    <t>上海商銀文山分行 臺北市文山區台北市羅斯福 路</t>
-  </si>
-  <si>
-    <t>新光証券 臺北市中正區台北市重慶南 路</t>
-  </si>
-  <si>
-    <t>98年09月 02日</t>
-  </si>
-  <si>
-    <t>100年01月 18日</t>
-  </si>
-  <si>
-    <t>98年09月 08日</t>
-  </si>
-  <si>
-    <t>101年04月 20日</t>
+    <t>上海商銀文山分行臺北市文山區台北市羅斯福路</t>
+  </si>
+  <si>
+    <t>新光証券臺北市中正區台北市重慶南路</t>
+  </si>
+  <si>
+    <t>98年09月02日</t>
+  </si>
+  <si>
+    <t>100年01月18日</t>
+  </si>
+  <si>
+    <t>98年09月08日</t>
+  </si>
+  <si>
+    <t>101年04月20日</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -605,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,31 +645,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3089.24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -675,25 +729,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -701,22 +755,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>161.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>34350000</v>
@@ -737,22 +791,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -760,22 +814,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -793,43 +847,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -837,10 +891,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>1036</v>
@@ -849,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>51</v>
@@ -881,10 +935,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>115000</v>
@@ -893,28 +947,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2">
         <v>52</v>
@@ -925,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>748</v>
@@ -937,28 +991,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2">
         <v>53</v>
@@ -969,10 +1023,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>1300</v>
@@ -981,28 +1035,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2">
         <v>54</v>
@@ -1013,10 +1067,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>20000</v>
@@ -1025,28 +1079,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
         <v>55</v>
@@ -1057,10 +1111,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>20000</v>
@@ -1069,28 +1123,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2">
         <v>56</v>
@@ -1101,10 +1155,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>105000</v>
@@ -1113,28 +1167,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1757</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2">
         <v>57</v>
@@ -1145,10 +1199,10 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>20000</v>
@@ -1157,28 +1211,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>1757</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2">
         <v>58</v>
@@ -1199,13 +1253,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1213,13 +1267,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1227,13 +1281,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1241,13 +1295,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1255,13 +1309,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1269,13 +1323,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1283,13 +1337,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1297,13 +1351,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1321,22 +1375,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1344,22 +1398,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1367,22 +1421,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1390,22 +1444,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1413,22 +1467,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -63,10 +63,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市板橋區新板段二小段00040000地號</t>
-  </si>
-  <si>
-    <t>100000分之535</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市板橋區新板段二小段00105000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>孫效智</t>
@@ -78,10 +84,49 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>34350000</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>國瑞Wish</t>
+  </si>
+  <si>
+    <t>94年05月03H</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>興勤電子工業股份有限公司</t>
+  </si>
+  <si>
+    <t>位速科技股份有限公司</t>
+  </si>
+  <si>
+    <t>碩禾電子材料股份有限公司</t>
+  </si>
+  <si>
+    <t>欣陸投資控股股份有限公司</t>
+  </si>
+  <si>
+    <t>遠雄建設事業股份有限公司</t>
+  </si>
+  <si>
+    <t>展茂光電股份有限公司</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>1150000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -96,114 +141,18 @@
     <t>tmp89971</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市板橋區新板段二小段00105000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>國瑞Wish</t>
-  </si>
-  <si>
-    <t>94年05月03H</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>鴻海精密工業股份有限公司</t>
-  </si>
-  <si>
-    <t>興勤電子工業股份有限公司</t>
-  </si>
-  <si>
-    <t>位速科技股份有限公司</t>
-  </si>
-  <si>
-    <t>碩禾電子材料股份有限公司</t>
-  </si>
-  <si>
-    <t>欣陸投資控股股份有限公司</t>
-  </si>
-  <si>
-    <t>遠雄建設事業股份有限公司</t>
-  </si>
-  <si>
-    <t>展茂光電股份有限公司</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>1150000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>特別增值分紅終身壽險</t>
+  </si>
+  <si>
     <t>保德信國際人壽</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>特別增值分紅終身壽險</t>
-  </si>
-  <si>
     <t>家用定期壽險</t>
   </si>
   <si>
@@ -216,39 +165,24 @@
     <t>安泰分紅終身壽險</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>上海商銀文山分行臺北市文山區台北市羅斯福路</t>
+  </si>
+  <si>
+    <t>98年09月02日</t>
+  </si>
+  <si>
+    <t>購置房屋</t>
+  </si>
+  <si>
     <t>證券融資</t>
   </si>
   <si>
-    <t>上海商銀文山分行臺北市文山區台北市羅斯福路</t>
-  </si>
-  <si>
     <t>新光証券臺北市中正區台北市重慶南路</t>
   </si>
   <si>
-    <t>98年09月02日</t>
-  </si>
-  <si>
     <t>100年01月18日</t>
   </si>
   <si>
@@ -256,9 +190,6 @@
   </si>
   <si>
     <t>101年04月20日</t>
-  </si>
-  <si>
-    <t>購置房屋</t>
   </si>
 </sst>
 </file>
@@ -617,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,51 +597,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>3089.24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1757</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -721,58 +611,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>161.4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>161.4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H1" s="1">
         <v>34350000</v>
       </c>
     </row>
@@ -783,53 +647,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +680,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,16 +694,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -888,189 +729,189 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>1036</v>
+        <v>115000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10360</v>
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>115000</v>
+        <v>748</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7480</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>748</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>7480</v>
+        <v>13000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>1300</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>20000</v>
@@ -1079,162 +920,118 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
-        <v>200000</v>
+        <v>1050000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2">
-        <v>1050000</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2">
         <v>1757</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N8" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1757</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="2">
         <v>58</v>
       </c>
     </row>
@@ -1245,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,111 +1050,97 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,114 +1158,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
-        <v>3000000</v>
+        <v>12300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>12300000</v>
+        <v>19000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>19000000</v>
+        <v>5527000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5527000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -69,21 +69,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市板橋區新板段二小段00040000地號</t>
+  </si>
+  <si>
+    <t>100000分之535</t>
+  </si>
+  <si>
+    <t>孫效智</t>
+  </si>
+  <si>
+    <t>98年08月28日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>34350000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>楊玉欣</t>
+  </si>
+  <si>
+    <t>tmp89971</t>
+  </si>
+  <si>
     <t>新北市板橋區新板段二小段00105000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>孫效智</t>
-  </si>
-  <si>
-    <t>98年08月28日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>國瑞Wish</t>
   </si>
   <si>
@@ -102,6 +126,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
     <t>興勤電子工業股份有限公司</t>
   </si>
   <si>
@@ -127,18 +154,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-24</t>
-  </si>
-  <si>
-    <t>楊玉欣</t>
-  </si>
-  <si>
-    <t>tmp89971</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -548,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,6 +617,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3089.24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00535</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16.527434</v>
       </c>
     </row>
   </sheetData>
@@ -611,33 +679,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>161.4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="2">
         <v>34350000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>161.4</v>
       </c>
     </row>
   </sheetData>
@@ -647,15 +795,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
@@ -664,13 +812,36 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,13 +865,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -729,186 +900,186 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>115000</v>
+        <v>1036</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>1757</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>748</v>
+        <v>115000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7480</v>
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>1757</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>1300</v>
+        <v>748</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
-        <v>13000</v>
+        <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>1757</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>20000</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>1757</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -920,118 +1091,162 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>1757</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
-        <v>1050000</v>
+        <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>1757</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
-        <v>200000</v>
+        <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>1757</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2">
         <v>58</v>
       </c>
     </row>
@@ -1042,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,10 +1265,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1061,13 +1276,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1075,13 +1290,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1089,13 +1304,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1103,13 +1318,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1117,13 +1332,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1131,15 +1346,29 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>88</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1150,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1158,91 +1387,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
-        <v>12300000</v>
+        <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
-        <v>19000000</v>
+        <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2">
         <v>5527000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞Wish</t>
@@ -795,38 +798,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -835,13 +859,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -865,13 +910,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -903,7 +948,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -915,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -947,7 +992,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -959,13 +1004,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -991,7 +1036,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1003,13 +1048,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1035,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1047,13 +1092,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1079,7 +1124,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1091,13 +1136,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1123,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1135,13 +1180,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1167,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1179,13 +1224,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1211,7 +1256,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1223,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1265,10 +1310,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1279,10 +1324,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1293,10 +1338,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1307,10 +1352,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1321,10 +1366,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1335,10 +1380,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1349,10 +1394,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1363,10 +1408,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1387,22 +1432,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1410,22 +1455,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1433,22 +1478,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1456,22 +1501,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1479,22 +1524,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>quantity</t>
@@ -764,7 +770,7 @@
         <v>34350000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -850,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -859,16 +865,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -910,13 +916,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -948,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -960,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>10360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -992,7 +998,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1004,13 +1010,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1036,7 +1042,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1048,13 +1054,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
         <v>7480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1080,7 +1086,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1092,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1124,7 +1130,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1136,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1168,7 +1174,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1180,13 +1186,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1212,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1224,13 +1230,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>1050000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1256,7 +1262,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1268,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2">
         <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1310,10 +1316,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1324,10 +1330,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1338,10 +1344,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1352,10 +1358,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1366,10 +1372,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1380,10 +1386,10 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1394,10 +1400,10 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1408,10 +1414,10 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1432,22 +1438,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1455,22 +1461,22 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1478,22 +1484,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1501,22 +1507,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1524,22 +1530,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
+++ b/legislator/property/output/normal/楊玉欣_2012-04-24_財產申報表_tmp89971.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -165,18 +165,21 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>保德信國際人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>特別增值分紅終身壽險</t>
   </si>
   <si>
-    <t>保德信國際人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>家用定期壽險</t>
   </si>
   <si>
@@ -189,31 +192,43 @@
     <t>安泰分紅終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>證券融資</t>
+  </si>
+  <si>
     <t>上海商銀文山分行臺北市文山區台北市羅斯福路</t>
   </si>
   <si>
+    <t>新光証券臺北市中正區台北市重慶南路</t>
+  </si>
+  <si>
     <t>98年09月02日</t>
   </si>
   <si>
+    <t>100年01月18日</t>
+  </si>
+  <si>
+    <t>98年09月08日</t>
+  </si>
+  <si>
+    <t>101年04月20日</t>
+  </si>
+  <si>
     <t>購置房屋</t>
   </si>
   <si>
-    <t>證券融資</t>
-  </si>
-  <si>
-    <t>新光証券臺北市中正區台北市重慶南路</t>
-  </si>
-  <si>
-    <t>100年01月18日</t>
-  </si>
-  <si>
-    <t>98年09月08日</t>
-  </si>
-  <si>
-    <t>101年04月20日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1308,38 +1323,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>83</v>
       </c>
@@ -1347,13 +1404,34 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -1361,13 +1439,34 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>85</v>
       </c>
@@ -1375,13 +1474,34 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>86</v>
       </c>
@@ -1389,13 +1509,34 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>87</v>
       </c>
@@ -1403,13 +1544,34 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>88</v>
       </c>
@@ -1417,10 +1579,31 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1757</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1430,122 +1613,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>12300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>19000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
         <v>5527000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1757</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
